--- a/teaching/traditional_assets/database/data/south_korea/south_korea_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/south_korea/south_korea_insurance_prop_cas.xlsx
@@ -590,119 +590,125 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.0379</v>
+      </c>
+      <c r="E2">
+        <v>0.04065000000000001</v>
+      </c>
       <c r="F2">
-        <v>0.004</v>
+        <v>0.0318</v>
       </c>
       <c r="G2">
-        <v>0.05229505908866142</v>
+        <v>0.02257217109468154</v>
       </c>
       <c r="H2">
-        <v>0.05229505908866142</v>
+        <v>0.02257217109468154</v>
       </c>
       <c r="I2">
-        <v>0.01028275376077491</v>
+        <v>0.03312017602667904</v>
       </c>
       <c r="J2">
-        <v>0.00815593106455971</v>
+        <v>0.02805589293286049</v>
       </c>
       <c r="K2">
-        <v>1475.3</v>
+        <v>1713.29</v>
       </c>
       <c r="L2">
-        <v>0.0254187205698149</v>
+        <v>0.02677421421684224</v>
       </c>
       <c r="M2">
-        <v>659.2233</v>
+        <v>679.8868</v>
       </c>
       <c r="N2">
-        <v>0.04159373718381485</v>
+        <v>0.04836126187004303</v>
       </c>
       <c r="O2">
-        <v>0.4468401681014031</v>
+        <v>0.3968311260790642</v>
       </c>
       <c r="P2">
-        <v>651.6932999999999</v>
+        <v>547.8368</v>
       </c>
       <c r="Q2">
-        <v>0.04111863134184274</v>
+        <v>0.03896836789131131</v>
       </c>
       <c r="R2">
-        <v>0.4417361214668203</v>
+        <v>0.3197571923025291</v>
       </c>
       <c r="S2">
-        <v>7.530000000000001</v>
+        <v>132.05</v>
       </c>
       <c r="T2">
-        <v>0.01142253315378871</v>
+        <v>0.194223508972376</v>
       </c>
       <c r="U2">
-        <v>62.554</v>
+        <v>0.091</v>
       </c>
       <c r="V2">
-        <v>0.003946848716961847</v>
+        <v>6.47295230643383e-06</v>
       </c>
       <c r="W2">
-        <v>0.07414319647098745</v>
+        <v>0.04933897365000786</v>
       </c>
       <c r="X2">
-        <v>0.0576883542208001</v>
+        <v>0.05807901224726801</v>
       </c>
       <c r="Y2">
-        <v>0.01645484225018735</v>
+        <v>-0.00874003859726015</v>
       </c>
       <c r="Z2">
-        <v>2.264306597628864</v>
+        <v>2.14452423656267</v>
       </c>
       <c r="AA2">
-        <v>-0.0009519401439395934</v>
+        <v>0.02888575347432119</v>
       </c>
       <c r="AB2">
-        <v>0.0472927748532209</v>
+        <v>0.04334820328349445</v>
       </c>
       <c r="AC2">
-        <v>-0.04818745995397988</v>
+        <v>-0.0144268465946674</v>
       </c>
       <c r="AD2">
-        <v>3466.3</v>
+        <v>4018.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>3466.3</v>
+        <v>4018.7</v>
       </c>
       <c r="AG2">
-        <v>3403.746</v>
+        <v>4018.609</v>
       </c>
       <c r="AH2">
-        <v>0.1794578419292378</v>
+        <v>0.2223076582656606</v>
       </c>
       <c r="AI2">
-        <v>0.1153660541634355</v>
+        <v>0.1231989356092656</v>
       </c>
       <c r="AJ2">
-        <v>0.1767918363861634</v>
+        <v>0.2223037433695841</v>
       </c>
       <c r="AK2">
-        <v>0.1135204621894955</v>
+        <v>0.1231964895608944</v>
       </c>
       <c r="AL2">
-        <v>165.5</v>
+        <v>203.2</v>
       </c>
       <c r="AM2">
-        <v>165.5</v>
+        <v>203.2</v>
       </c>
       <c r="AN2">
-        <v>3.098064100959905</v>
+        <v>1.46979006656426</v>
       </c>
       <c r="AO2">
-        <v>3.606102719033232</v>
+        <v>10.42997047244094</v>
       </c>
       <c r="AP2">
-        <v>3.042155408183329</v>
+        <v>1.469756784434204</v>
       </c>
       <c r="AQ2">
-        <v>3.606102719033232</v>
+        <v>10.42997047244094</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samsung Fire &amp; Marine Insurance Co., Ltd. (KOSE:A000810)</t>
+          <t>DB Insurance Co., Ltd. (KOSE:A005830)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,119 +727,125 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0472</v>
+      </c>
+      <c r="E3">
+        <v>0.0457</v>
+      </c>
       <c r="F3">
-        <v>0.11</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="G3">
-        <v>0.08336316087242665</v>
+        <v>0.02567530880955613</v>
       </c>
       <c r="H3">
-        <v>0.08336316087242665</v>
+        <v>0.02567530880955613</v>
       </c>
       <c r="I3">
-        <v>0.03997852417185281</v>
+        <v>0.05264693905253157</v>
       </c>
       <c r="J3">
-        <v>0.0294700422508123</v>
+        <v>0.03951002214250326</v>
       </c>
       <c r="K3">
-        <v>634.3</v>
+        <v>477.4</v>
       </c>
       <c r="L3">
-        <v>0.0366185962197924</v>
+        <v>0.03240124881227094</v>
       </c>
       <c r="M3">
-        <v>381.682</v>
+        <v>182.9</v>
       </c>
       <c r="N3">
-        <v>0.04549845629343537</v>
+        <v>0.07576322439004184</v>
       </c>
       <c r="O3">
-        <v>0.6017373482579221</v>
+        <v>0.3831168831168831</v>
       </c>
       <c r="P3">
-        <v>381.682</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.04549845629343537</v>
+        <v>0.03206163787746987</v>
       </c>
       <c r="R3">
-        <v>0.6017373482579221</v>
+        <v>0.1621281943862589</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>105.5</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.5768179332968836</v>
       </c>
       <c r="U3">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>5.602641585905184e-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.05793858126746926</v>
+        <v>0.08936058700209644</v>
       </c>
       <c r="X3">
-        <v>0.04778163421456283</v>
+        <v>0.05807901224726801</v>
       </c>
       <c r="Y3">
-        <v>0.01015694705290644</v>
+        <v>0.03128157475482843</v>
       </c>
       <c r="Z3">
-        <v>1.581972935365403</v>
+        <v>2.339918688857833</v>
       </c>
       <c r="AA3">
-        <v>0.04662080924485999</v>
+        <v>0.09245023920843015</v>
       </c>
       <c r="AB3">
-        <v>0.04778163421456283</v>
+        <v>0.04330306607703813</v>
       </c>
       <c r="AC3">
-        <v>-0.001160824969702844</v>
+        <v>0.04914717313139202</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1392.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1392.6</v>
       </c>
       <c r="AG3">
-        <v>-0.047</v>
+        <v>1392.6</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.3658286705020096</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.195310089478556</v>
       </c>
       <c r="AJ3">
-        <v>-5.602672975673791e-06</v>
+        <v>0.3658286705020096</v>
       </c>
       <c r="AK3">
-        <v>-3.884922640031416e-06</v>
+        <v>0.195310089478556</v>
       </c>
       <c r="AL3">
-        <v>21.2</v>
+        <v>44</v>
       </c>
       <c r="AM3">
-        <v>21.2</v>
+        <v>44</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.584841242744964</v>
       </c>
       <c r="AO3">
-        <v>32.66509433962264</v>
+        <v>17.62954545454545</v>
       </c>
       <c r="AP3">
-        <v>-5.001596254123656e-05</v>
+        <v>1.584841242744964</v>
       </c>
       <c r="AQ3">
-        <v>32.66509433962264</v>
+        <v>17.62954545454545</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +856,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lotte Non - Life Insurance Co., Ltd. (KOSE:A000400)</t>
+          <t>Samsung Fire &amp; Marine Insurance Co., Ltd. (KOSE:A000810)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -852,113 +864,125 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.007820000000000001</v>
+      </c>
+      <c r="E4">
+        <v>-0.0399</v>
+      </c>
+      <c r="F4">
+        <v>0.0576</v>
+      </c>
       <c r="G4">
-        <v>0.03131831362926612</v>
+        <v>0.05247635513068239</v>
       </c>
       <c r="H4">
-        <v>0.03131831362926612</v>
+        <v>0.05247635513068239</v>
       </c>
       <c r="I4">
-        <v>0.01601606067365603</v>
+        <v>0.0479695119013847</v>
       </c>
       <c r="J4">
-        <v>0.01235392234306609</v>
+        <v>0.03541325684241432</v>
       </c>
       <c r="K4">
-        <v>53.3</v>
+        <v>596</v>
       </c>
       <c r="L4">
-        <v>0.02377871960740575</v>
+        <v>0.03190117060167963</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>311.2</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.04248522164125108</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.5221476510067113</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>311.2</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.04248522164125108</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.5221476510067113</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1.174077461808352e-05</v>
       </c>
       <c r="W4">
-        <v>0.1151436595376971</v>
+        <v>0.04933897365000786</v>
       </c>
       <c r="X4">
-        <v>0.0576883542208001</v>
+        <v>0.04334820328349445</v>
       </c>
       <c r="Y4">
-        <v>0.05745530531689703</v>
+        <v>0.005990770366513409</v>
       </c>
       <c r="Z4">
-        <v>3.030692266089779</v>
+        <v>1.546625552902886</v>
       </c>
       <c r="AA4">
-        <v>0.03744093690100411</v>
+        <v>0.05477104794399096</v>
       </c>
       <c r="AB4">
-        <v>0.04854527833656055</v>
+        <v>0.04334820328349445</v>
       </c>
       <c r="AC4">
-        <v>-0.01110434143555645</v>
+        <v>0.01142284466049651</v>
       </c>
       <c r="AD4">
-        <v>256.4</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>256.4</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>256.4</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.3160749506903353</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.3049114044476156</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.3160749506903353</v>
+        <v>-1.174091246549059e-05</v>
       </c>
       <c r="AK4">
-        <v>0.3049114044476156</v>
+        <v>-6.581508074515528e-06</v>
       </c>
       <c r="AL4">
-        <v>12.9</v>
+        <v>38.6</v>
       </c>
       <c r="AM4">
-        <v>12.9</v>
+        <v>38.6</v>
       </c>
       <c r="AN4">
-        <v>5.443736730360934</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>2.782945736434108</v>
+        <v>23.21761658031088</v>
       </c>
       <c r="AP4">
-        <v>5.443736730360934</v>
+        <v>-7.321018132289095e-05</v>
       </c>
       <c r="AQ4">
-        <v>2.782945736434108</v>
+        <v>23.21761658031088</v>
       </c>
     </row>
     <row r="5">
@@ -977,50 +1001,56 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.0379</v>
+      </c>
+      <c r="E5">
+        <v>0.0356</v>
+      </c>
       <c r="F5">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="G5">
-        <v>0.04268901538750395</v>
+        <v>0.02918817456593149</v>
       </c>
       <c r="H5">
-        <v>0.04268901538750395</v>
+        <v>0.02918817456593149</v>
       </c>
       <c r="I5">
-        <v>0.009916960391899158</v>
+        <v>0.02608321601751916</v>
       </c>
       <c r="J5">
-        <v>0.007098952612284034</v>
+        <v>0.01883386419732224</v>
       </c>
       <c r="K5">
-        <v>210.6</v>
+        <v>312.9</v>
       </c>
       <c r="L5">
-        <v>0.017973423911652</v>
+        <v>0.02447207883622712</v>
       </c>
       <c r="M5">
-        <v>75.1571</v>
+        <v>81.4264</v>
       </c>
       <c r="N5">
-        <v>0.04043312890036583</v>
+        <v>0.0490431849665723</v>
       </c>
       <c r="O5">
-        <v>0.3568713200379867</v>
+        <v>0.2602313838286993</v>
       </c>
       <c r="P5">
-        <v>75.1571</v>
+        <v>60.0264</v>
       </c>
       <c r="Q5">
-        <v>0.04043312890036583</v>
+        <v>0.03615394808167199</v>
       </c>
       <c r="R5">
-        <v>0.3568713200379867</v>
+        <v>0.1918389261744967</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.2628140259178841</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1029,67 +1059,67 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.06192296383416642</v>
+        <v>0.07772368224949078</v>
       </c>
       <c r="X5">
-        <v>0.05862314257685726</v>
+        <v>0.05712139158095693</v>
       </c>
       <c r="Y5">
-        <v>0.003299821257309161</v>
+        <v>0.02060229066853385</v>
       </c>
       <c r="Z5">
-        <v>2.653314010099409</v>
+        <v>2.574759862260617</v>
       </c>
       <c r="AA5">
-        <v>0.01883575042320502</v>
+        <v>0.04849267758653257</v>
       </c>
       <c r="AB5">
-        <v>0.04708166370557505</v>
+        <v>0.04330497224555261</v>
       </c>
       <c r="AC5">
-        <v>-0.02824591328237003</v>
+        <v>0.00518770534097996</v>
       </c>
       <c r="AD5">
-        <v>940.1</v>
+        <v>895.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>940.1</v>
+        <v>895.5</v>
       </c>
       <c r="AG5">
-        <v>940.1</v>
+        <v>895.5</v>
       </c>
       <c r="AH5">
-        <v>0.3358819536246382</v>
+        <v>0.3503795289146255</v>
       </c>
       <c r="AI5">
-        <v>0.1893111017136873</v>
+        <v>0.172099012184341</v>
       </c>
       <c r="AJ5">
-        <v>0.3358819536246382</v>
+        <v>0.3503795289146255</v>
       </c>
       <c r="AK5">
-        <v>0.1893111017136873</v>
+        <v>0.172099012184341</v>
       </c>
       <c r="AL5">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="AM5">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="AN5">
-        <v>4.845876288659794</v>
+        <v>2.106563161609033</v>
       </c>
       <c r="AO5">
-        <v>3.183561643835616</v>
+        <v>9.112021857923496</v>
       </c>
       <c r="AP5">
-        <v>4.845876288659794</v>
+        <v>2.106563161609033</v>
       </c>
       <c r="AQ5">
-        <v>3.183561643835616</v>
+        <v>9.112021857923496</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1130,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DB Insurance Co., Ltd. (KOSE:A005830)</t>
+          <t>Meritz Fire &amp; Marine Insurance Co., Ltd. (KOSE:A000060)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1108,119 +1138,125 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.09720000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.22</v>
+      </c>
       <c r="F6">
-        <v>0.0242</v>
+        <v>0.006</v>
       </c>
       <c r="G6">
-        <v>0.04982176779105584</v>
+        <v>-0.02831614782405644</v>
       </c>
       <c r="H6">
-        <v>0.04982176779105584</v>
+        <v>-0.02831614782405644</v>
       </c>
       <c r="I6">
-        <v>-0.0005040452278420658</v>
+        <v>0.01453906374820259</v>
       </c>
       <c r="J6">
-        <v>-0.000372560025455073</v>
+        <v>0.01045171385776649</v>
       </c>
       <c r="K6">
-        <v>329.9</v>
+        <v>332.8</v>
       </c>
       <c r="L6">
-        <v>0.02496764574551014</v>
+        <v>0.04090110241252597</v>
       </c>
       <c r="M6">
-        <v>105.711</v>
+        <v>91.29000000000001</v>
       </c>
       <c r="N6">
-        <v>0.03691542114820505</v>
+        <v>0.05764713311442284</v>
       </c>
       <c r="O6">
-        <v>0.3204334646862685</v>
+        <v>0.2743088942307693</v>
       </c>
       <c r="P6">
-        <v>105.711</v>
+        <v>86.14</v>
       </c>
       <c r="Q6">
-        <v>0.03691542114820505</v>
+        <v>0.05439504925486234</v>
       </c>
       <c r="R6">
-        <v>0.3204334646862685</v>
+        <v>0.2588341346153846</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>5.150000000000006</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.05641362690327534</v>
       </c>
       <c r="U6">
-        <v>62.5</v>
+        <v>0.003</v>
       </c>
       <c r="V6">
-        <v>0.02182567397681241</v>
+        <v>1.89441778226825e-06</v>
       </c>
       <c r="W6">
-        <v>0.07771678955923579</v>
+        <v>0.1378225038307036</v>
       </c>
       <c r="X6">
-        <v>0.05539390473928406</v>
+        <v>0.05370553513922909</v>
       </c>
       <c r="Y6">
-        <v>0.02232288481995173</v>
+        <v>0.08411696869147454</v>
       </c>
       <c r="Z6">
-        <v>2.555132271039604</v>
+        <v>2.763733667742605</v>
       </c>
       <c r="AA6">
-        <v>-0.0009519401439395934</v>
+        <v>0.02888575347432119</v>
       </c>
       <c r="AB6">
-        <v>0.04723551981004029</v>
+        <v>0.04331260006898859</v>
       </c>
       <c r="AC6">
-        <v>-0.04818745995397988</v>
+        <v>-0.0144268465946674</v>
       </c>
       <c r="AD6">
-        <v>1016.9</v>
+        <v>642.3</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1016.9</v>
+        <v>642.3</v>
       </c>
       <c r="AG6">
-        <v>954.4</v>
+        <v>642.2969999999999</v>
       </c>
       <c r="AH6">
-        <v>0.2620538590387836</v>
+        <v>0.2885574374410351</v>
       </c>
       <c r="AI6">
-        <v>0.1557512635931996</v>
+        <v>0.2146796350145393</v>
       </c>
       <c r="AJ6">
-        <v>0.2499738082765846</v>
+        <v>0.2885564785791975</v>
       </c>
       <c r="AK6">
-        <v>0.1475914327688858</v>
+        <v>0.2146788475672792</v>
       </c>
       <c r="AL6">
-        <v>39.7</v>
+        <v>33.3</v>
       </c>
       <c r="AM6">
-        <v>39.7</v>
+        <v>33.3</v>
       </c>
       <c r="AN6">
-        <v>10.89924973204716</v>
+        <v>3.873944511459589</v>
       </c>
       <c r="AO6">
-        <v>-0.1677581863979849</v>
+        <v>3.552552552552553</v>
       </c>
       <c r="AP6">
-        <v>10.22936763129689</v>
+        <v>3.873926417370325</v>
       </c>
       <c r="AQ6">
-        <v>-0.1677581863979849</v>
+        <v>3.552552552552553</v>
       </c>
     </row>
     <row r="7">
@@ -1231,7 +1267,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Heungkuk Fire &amp; Marine Insurance Co., Ltd. (KOSE:A000540)</t>
+          <t>Hanwha General Insurance Co., Ltd. (KOSE:A000370)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1239,113 +1275,122 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.0199</v>
+      </c>
+      <c r="E7">
+        <v>-0.269</v>
+      </c>
       <c r="G7">
-        <v>0.01933642829762766</v>
+        <v>-0.006668519033064741</v>
       </c>
       <c r="H7">
-        <v>0.01933642829762766</v>
+        <v>-0.006668519033064741</v>
       </c>
       <c r="I7">
-        <v>-0.003547851271348865</v>
+        <v>0.005749460320174407</v>
       </c>
       <c r="J7">
-        <v>-0.002997488269487784</v>
+        <v>0.005749460320174407</v>
       </c>
       <c r="K7">
-        <v>43.7</v>
+        <v>-3.61</v>
       </c>
       <c r="L7">
-        <v>0.01861237701776055</v>
+        <v>-0.0007715818496590933</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>13.0704</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.031770539620807</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>-3.620609418282549</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>13.0704</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.031770539620807</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>-3.620609418282549</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>2.348796241926013e-05</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.07414319647098745</v>
+        <v>-0.002791309054357071</v>
       </c>
       <c r="X7">
-        <v>0.0881617938858712</v>
+        <v>0.0689091842852136</v>
       </c>
       <c r="Y7">
-        <v>-0.01401859741488375</v>
+        <v>-0.07170049333957067</v>
       </c>
       <c r="Z7">
-        <v>3.014983100993395</v>
+        <v>2.758667452830188</v>
       </c>
       <c r="AA7">
-        <v>-0.009037376477931602</v>
+        <v>0.01586084905660377</v>
       </c>
       <c r="AB7">
-        <v>0.04642032276351155</v>
+        <v>0.043997424052615</v>
       </c>
       <c r="AC7">
-        <v>-0.05545769924144315</v>
+        <v>-0.02813657499601122</v>
       </c>
       <c r="AD7">
-        <v>320.8</v>
+        <v>411.8</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>320.8</v>
+        <v>411.8</v>
       </c>
       <c r="AG7">
-        <v>320.796</v>
+        <v>411.8</v>
       </c>
       <c r="AH7">
-        <v>0.6532274485848096</v>
+        <v>0.500242954324587</v>
       </c>
       <c r="AI7">
-        <v>0.3419313579194201</v>
+        <v>0.198841139546113</v>
       </c>
       <c r="AJ7">
-        <v>0.6532246241060811</v>
+        <v>0.500242954324587</v>
       </c>
       <c r="AK7">
-        <v>0.3419285522428149</v>
+        <v>0.198841139546113</v>
       </c>
       <c r="AL7">
-        <v>15.8</v>
+        <v>19</v>
       </c>
       <c r="AM7">
-        <v>15.8</v>
+        <v>19</v>
       </c>
       <c r="AN7">
-        <v>44.80446927374302</v>
+        <v>5.040391676866585</v>
       </c>
       <c r="AO7">
-        <v>-0.5272151898734178</v>
+        <v>1.41578947368421</v>
       </c>
       <c r="AP7">
-        <v>44.80391061452514</v>
+        <v>5.040391676866585</v>
       </c>
       <c r="AQ7">
-        <v>-0.5272151898734178</v>
+        <v>1.41578947368421</v>
       </c>
     </row>
     <row r="8">
@@ -1356,7 +1401,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hanwha General Insurance Co., Ltd. (KOSE:A000370)</t>
+          <t>Heungkuk Fire &amp; Marine Insurance Co., Ltd. (KOSE:A000540)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1364,119 +1409,119 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="F8">
-        <v>-0.005</v>
+      <c r="D8">
+        <v>-0.0111</v>
+      </c>
+      <c r="E8">
+        <v>0.102</v>
       </c>
       <c r="G8">
-        <v>0.0235104298720756</v>
+        <v>0.01904030054644809</v>
       </c>
       <c r="H8">
-        <v>0.0235104298720756</v>
+        <v>0.01904030054644809</v>
       </c>
       <c r="I8">
-        <v>-0.01668779532096347</v>
+        <v>0.002634050546448087</v>
       </c>
       <c r="J8">
-        <v>-0.01668779532096347</v>
+        <v>0.002634050546448087</v>
       </c>
       <c r="K8">
-        <v>-15.3</v>
+        <v>20.9</v>
       </c>
       <c r="L8">
-        <v>-0.003526564480811341</v>
+        <v>0.008922472677595628</v>
       </c>
       <c r="M8">
-        <v>12.6036</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.04417665615141956</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>-0.823764705882353</v>
+        <v>-0</v>
       </c>
       <c r="P8">
-        <v>12.6036</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.04417665615141956</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>-0.823764705882353</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.196888090963495e-05</v>
       </c>
       <c r="W8">
-        <v>-0.0119493908153702</v>
+        <v>0.03334396936821953</v>
       </c>
       <c r="X8">
-        <v>0.07803879535600459</v>
+        <v>0.09235744382665725</v>
       </c>
       <c r="Y8">
-        <v>-0.08998818617137479</v>
+        <v>-0.05901347445843773</v>
       </c>
       <c r="Z8">
-        <v>2.927858010527736</v>
+        <v>2.368270992320105</v>
       </c>
       <c r="AA8">
-        <v>-0.04885949520853016</v>
+        <v>0.006238145501457927</v>
       </c>
       <c r="AB8">
-        <v>0.04733621891057506</v>
+        <v>0.04652142166187055</v>
       </c>
       <c r="AC8">
-        <v>-0.09619571411910521</v>
+        <v>-0.04028327616041263</v>
       </c>
       <c r="AD8">
-        <v>402.7</v>
+        <v>320.7</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>402.7</v>
+        <v>320.7</v>
       </c>
       <c r="AG8">
-        <v>402.7</v>
+        <v>320.698</v>
       </c>
       <c r="AH8">
-        <v>0.5853197674418604</v>
+        <v>0.6574415744157442</v>
       </c>
       <c r="AI8">
-        <v>0.2336931290622098</v>
+        <v>0.3413881200766446</v>
       </c>
       <c r="AJ8">
-        <v>0.5853197674418604</v>
+        <v>0.6574401699063956</v>
       </c>
       <c r="AK8">
-        <v>0.2336931290622098</v>
+        <v>0.3413867178767678</v>
       </c>
       <c r="AL8">
-        <v>21.6</v>
+        <v>17.6</v>
       </c>
       <c r="AM8">
-        <v>21.6</v>
+        <v>17.6</v>
       </c>
       <c r="AN8">
-        <v>-11.98511904761905</v>
+        <v>12.67588932806324</v>
       </c>
       <c r="AO8">
-        <v>-3.351851851851852</v>
+        <v>0.3505681818181818</v>
       </c>
       <c r="AP8">
-        <v>-11.98511904761905</v>
+        <v>12.67581027667984</v>
       </c>
       <c r="AQ8">
-        <v>-3.351851851851852</v>
+        <v>0.3505681818181818</v>
       </c>
     </row>
     <row r="9">
@@ -1487,7 +1532,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meritz Fire &amp; Marine Insurance Co., Ltd. (KOSE:A000060)</t>
+          <t>Lotte Non - Life Insurance Co., Ltd. (KOSE:A000400)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1495,119 +1540,116 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="F9">
-        <v>0.004</v>
+      <c r="D9">
+        <v>0.0897</v>
       </c>
       <c r="G9">
-        <v>0.03135659931776436</v>
+        <v>-0.02680812229066849</v>
       </c>
       <c r="H9">
-        <v>0.03135659931776436</v>
+        <v>-0.02680812229066849</v>
       </c>
       <c r="I9">
-        <v>-0.02338260590687775</v>
+        <v>-0.01422161381093619</v>
       </c>
       <c r="J9">
-        <v>-0.01739234834483113</v>
+        <v>-0.01422161381093619</v>
       </c>
       <c r="K9">
-        <v>218.8</v>
+        <v>-23.1</v>
       </c>
       <c r="L9">
-        <v>0.03189597364354646</v>
+        <v>-0.008783937942048825</v>
       </c>
       <c r="M9">
-        <v>84.06960000000001</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.04866828759986107</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.3842303473491773</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>76.53960000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.04430913511635985</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.3498153564899452</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>7.530000000000001</v>
-      </c>
-      <c r="T9">
-        <v>0.08956864312426847</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>1.736714136853074e-06</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.1251358307120389</v>
+        <v>-0.03844233649525712</v>
       </c>
       <c r="X9">
-        <v>0.05435124048114391</v>
+        <v>0.06162573908353568</v>
       </c>
       <c r="Y9">
-        <v>0.07078459023089499</v>
+        <v>-0.1000680755787928</v>
       </c>
       <c r="Z9">
-        <v>3.273444102403571</v>
+        <v>3.031819229882407</v>
       </c>
       <c r="AA9">
-        <v>-0.05693288011633597</v>
+        <v>-0.04311736223195757</v>
       </c>
       <c r="AB9">
-        <v>0.0472927748532209</v>
+        <v>0.04536169861189269</v>
       </c>
       <c r="AC9">
-        <v>-0.1042256549695569</v>
+        <v>-0.08847906084385027</v>
       </c>
       <c r="AD9">
-        <v>529.4</v>
+        <v>355.8</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>529.4</v>
+        <v>355.8</v>
       </c>
       <c r="AG9">
-        <v>529.3969999999999</v>
+        <v>355.8</v>
       </c>
       <c r="AH9">
-        <v>0.2345799361928394</v>
+        <v>0.4171649665845937</v>
       </c>
       <c r="AI9">
-        <v>0.1794089738376033</v>
+        <v>0.2924303443741267</v>
       </c>
       <c r="AJ9">
-        <v>0.2345789187064676</v>
+        <v>0.4171649665845937</v>
       </c>
       <c r="AK9">
-        <v>0.1794081395636501</v>
+        <v>0.2924303443741267</v>
       </c>
       <c r="AL9">
-        <v>17.8</v>
+        <v>14.1</v>
       </c>
       <c r="AM9">
-        <v>17.8</v>
+        <v>14.1</v>
       </c>
       <c r="AN9">
-        <v>-4.110248447204969</v>
+        <v>-20.80701754385965</v>
       </c>
       <c r="AO9">
-        <v>-9.011235955056179</v>
+        <v>-2.652482269503546</v>
       </c>
       <c r="AP9">
-        <v>-4.110225155279502</v>
+        <v>-20.80701754385965</v>
       </c>
       <c r="AQ9">
-        <v>-9.011235955056179</v>
+        <v>-2.652482269503546</v>
       </c>
     </row>
   </sheetData>
